--- a/zero_to_hero.xlsx
+++ b/zero_to_hero.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Coutinho\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F39B81-BA84-4C94-98BD-E3BB9E30BC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5042B-E9B6-4AD4-812A-5DA5ECA3A3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1867047-6FA6-4A33-9461-74C2EA3945E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha2!$B$2:$F$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>Codigo</t>
   </si>
@@ -162,9 +166,6 @@
     <t>Blend-vegan</t>
   </si>
   <si>
-    <t>UN</t>
-  </si>
-  <si>
     <t>BCAA</t>
   </si>
   <si>
@@ -178,6 +179,93 @@
   </si>
   <si>
     <t>PESO - KG</t>
+  </si>
+  <si>
+    <t>UND</t>
+  </si>
+  <si>
+    <t>Datas de Pagamento</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>MODO DE PGTO</t>
+  </si>
+  <si>
+    <t>DINHEIRO</t>
+  </si>
+  <si>
+    <t>PIX</t>
+  </si>
+  <si>
+    <t>CHEQUE</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t>AMANDA</t>
+  </si>
+  <si>
+    <t>JUREMA</t>
+  </si>
+  <si>
+    <t>ONIDIEL</t>
+  </si>
+  <si>
+    <t>URUPITANY</t>
+  </si>
+  <si>
+    <t>ZORAIDE</t>
+  </si>
+  <si>
+    <t>MANOEL</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>MARIA JOANA</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>GERSON</t>
+  </si>
+  <si>
+    <t>APOLONIO</t>
+  </si>
+  <si>
+    <t>JOSE MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO </t>
+  </si>
+  <si>
+    <t>MAGNALDA</t>
+  </si>
+  <si>
+    <t>JACIARA</t>
+  </si>
+  <si>
+    <t>TEREZA</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Dinheiro</t>
   </si>
 </sst>
 </file>
@@ -191,7 +279,7 @@
     <numFmt numFmtId="168" formatCode="#.0\ &quot;kg&quot;"/>
     <numFmt numFmtId="169" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +289,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -253,13 +363,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -279,8 +406,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -289,6 +434,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -396,33 +586,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -431,36 +736,53 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="8" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="5">
+    <cellStyle name="Entrada" xfId="2" builtinId="20"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Saída" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,6 +800,1108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>GRÁFICO DE MODO DE PAGAMENTO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23896351882189223"/>
+          <c:y val="3.015075376884422E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$B$24:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PIX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dinheiro</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CREDITO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CHEQUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$C$24:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15113.814999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3850.8999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5061.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1925.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3602.9749999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E364-4726-90C4-6D34375E48FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF94F471-7BE5-87BD-C0D7-0897B3C866F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,14 +2204,14 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="46.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.90625" customWidth="1"/>
     <col min="7" max="7" width="10.08984375" customWidth="1"/>
@@ -796,46 +2220,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2323</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -845,20 +2270,20 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>144</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -867,20 +2292,20 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>61.11</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="15">
-        <v>3000</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1502</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -889,14 +2314,14 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>69.3</v>
       </c>
-      <c r="E7" t="s">
-        <v>38</v>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -906,25 +2331,25 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>41.4</v>
       </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="12" t="str">
+      <c r="H8" s="13" t="str">
         <f xml:space="preserve"> VLOOKUP($H$6,A1:D32,2,0)</f>
-        <v>Hot termogênico (60 comprimidos)</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>Albumina</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -933,24 +2358,24 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>75.599999999999994</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="12" t="str">
+      <c r="G9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="13" t="str">
         <f xml:space="preserve"> VLOOKUP($H$6,A2:D33,3,0)</f>
-        <v>86,5 g</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>1 KG</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -959,33 +2384,33 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>75.599999999999994</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="14">
         <f xml:space="preserve"> VLOOKUP($H$6,A3:D34,4,0)</f>
         <v>69.3</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -994,14 +2419,14 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>69.3</v>
       </c>
-      <c r="E14" t="s">
-        <v>38</v>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1011,24 +2436,24 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>42.3</v>
       </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6" t="s">
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -1037,14 +2462,14 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>36.9</v>
       </c>
-      <c r="E19" t="s">
-        <v>38</v>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1054,14 +2479,14 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>25.2</v>
       </c>
-      <c r="E20" t="s">
-        <v>38</v>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1071,14 +2496,14 @@
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>23.4</v>
       </c>
-      <c r="E21" t="s">
-        <v>38</v>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1088,14 +2513,14 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
-        <v>38</v>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1105,14 +2530,14 @@
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
-        <v>38</v>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1122,14 +2547,11 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>13.5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1139,24 +2561,24 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>19.8</v>
       </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6" t="s">
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -1165,14 +2587,14 @@
       <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>48.6</v>
       </c>
-      <c r="E29" t="s">
-        <v>38</v>
+      <c r="E29" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1182,14 +2604,14 @@
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>75.599999999999994</v>
       </c>
-      <c r="E30" t="s">
-        <v>38</v>
+      <c r="E30" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1197,16 +2619,16 @@
         <v>1854</v>
       </c>
       <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>50.4</v>
       </c>
-      <c r="E31" t="s">
-        <v>38</v>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1214,24 +2636,421 @@
         <v>1414</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>18</v>
       </c>
-      <c r="E32" t="s">
-        <v>38</v>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331BD187-78F6-4F92-A6EA-84E394CEFD00}">
+  <dimension ref="B2:F28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44486</v>
+      </c>
+      <c r="E3" s="26">
+        <v>975</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <f>D3+6</f>
+        <v>44492</v>
+      </c>
+      <c r="E4" s="26">
+        <v>269</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <f>D4+6</f>
+        <v>44498</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1978.98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D5+6</f>
+        <v>44504</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1135.99</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <f>D6+6</f>
+        <v>44510</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1373.12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <f>D7+6</f>
+        <v>44516</v>
+      </c>
+      <c r="E8" s="26">
+        <v>789.19</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D8+6</f>
+        <v>44522</v>
+      </c>
+      <c r="E9" s="26">
+        <v>678.49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D9+6</f>
+        <v>44528</v>
+      </c>
+      <c r="E10" s="26">
+        <v>989.99</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D10+6</f>
+        <v>44534</v>
+      </c>
+      <c r="E11" s="26">
+        <v>999.99</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D11+6</f>
+        <v>44540</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D12+6</f>
+        <v>44546</v>
+      </c>
+      <c r="E13" s="26">
+        <v>180.99</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3">
+        <f>D13+6</f>
+        <v>44552</v>
+      </c>
+      <c r="E14" s="26">
+        <v>397.99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3">
+        <f>D14+6</f>
+        <v>44558</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1099.78</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3">
+        <f>D15+6</f>
+        <v>44564</v>
+      </c>
+      <c r="E16" s="26">
+        <v>154.63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
+        <f>D16+6</f>
+        <v>44570</v>
+      </c>
+      <c r="E17" s="26">
+        <v>453.01499999999999</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D17+6</f>
+        <v>44576</v>
+      </c>
+      <c r="E18" s="26">
+        <v>888.88</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <f>D18+6</f>
+        <v>44582</v>
+      </c>
+      <c r="E19" s="26">
+        <v>748.78</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="30">
+        <f>SUM(E3:E19)</f>
+        <v>15113.814999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="31">
+        <f>E4+E9+E12+E16+E19</f>
+        <v>3850.8999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="31">
+        <f>E4+E8+E12+E15+E16+E19</f>
+        <v>5061.38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="31">
+        <f>E6+E8</f>
+        <v>1925.18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="32">
+        <f>E5+E10+E13+E17</f>
+        <v>3602.9749999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:F19" xr:uid="{331BD187-78F6-4F92-A6EA-84E394CEFD00}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>